--- a/src/data/Footprint.xlsx
+++ b/src/data/Footprint.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Node JS\Karbonless-API\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E7FDE5-61E1-4988-900D-F88508CC6D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFC43D-8C60-485D-8276-4A172C8DC1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81DC7A5F-55AF-40EA-8EC7-359879C15EC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81DC7A5F-55AF-40EA-8EC7-359879C15EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel" sheetId="1" r:id="rId1"/>
     <sheet name="Food" sheetId="2" r:id="rId2"/>
+    <sheet name="Product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>type</t>
   </si>
@@ -56,9 +57,6 @@
     <t>Passenger Car, Small</t>
   </si>
   <si>
-    <t xml:space="preserve"> Passenger Car, Hatchback</t>
-  </si>
-  <si>
     <t>Passenger Car, Premium Hatchback</t>
   </si>
   <si>
@@ -192,6 +190,15 @@
   </si>
   <si>
     <t>Butter</t>
+  </si>
+  <si>
+    <t>Smart Phone</t>
+  </si>
+  <si>
+    <t>Plastic Water Bottle</t>
+  </si>
+  <si>
+    <t>Passenger Car, Hatchback</t>
   </si>
 </sst>
 </file>
@@ -546,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654730BA-966A-4E9A-A34D-E58A6B0991B0}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +583,7 @@
         <v>3.4250000000000003E-2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -587,7 +594,7 @@
         <v>4.0629999999999999E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -598,7 +605,7 @@
         <v>0.11779299999999999</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -609,227 +616,227 @@
         <v>0.10133300000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>1.21E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0.153</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.189</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.142286</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.19525000000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.186</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.22500000000000001</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0.19666700000000001</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.20899999999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1.5161000000000001E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0.307</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0.59279999999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0.73750000000000004</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2310</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>2440</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>2740</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>10240</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>8100</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -841,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB058400-035D-4E2C-9540-E881D5A059E1}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,7 +868,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>49.325000000000003</v>
@@ -869,7 +876,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>50.975000000000001</v>
@@ -877,7 +884,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>55.375</v>
@@ -885,7 +892,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>40.35</v>
@@ -893,7 +900,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>34.674999999999997</v>
@@ -901,7 +908,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>35.625</v>
@@ -909,7 +916,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>50.65</v>
@@ -917,7 +924,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>109.3</v>
@@ -925,7 +932,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>38.6</v>
@@ -933,7 +940,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>37.575000000000003</v>
@@ -941,7 +948,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1">
         <v>28.725000000000001</v>
@@ -950,7 +957,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>29.824999999999999</v>
@@ -958,7 +965,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>29.625</v>
@@ -966,7 +973,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>45.7</v>
@@ -974,7 +981,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>52.1</v>
@@ -982,7 +989,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>47.85</v>
@@ -990,7 +997,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>20.149999999999999</v>
@@ -998,7 +1005,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>20.225000000000001</v>
@@ -1006,7 +1013,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>12.025</v>
@@ -1014,7 +1021,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <v>15.6</v>
@@ -1022,7 +1029,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>4.2750000000000004</v>
@@ -1030,7 +1037,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>67.05</v>
@@ -1038,7 +1045,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>16.925000000000001</v>
@@ -1046,7 +1053,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>36</v>
@@ -1058,4 +1065,45 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8E9C1-7FDA-4BAA-BDCC-420B6A2BC665}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3">
+        <v>8.2799999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/data/Footprint.xlsx
+++ b/src/data/Footprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Node JS\Karbonless-API\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFC43D-8C60-485D-8276-4A172C8DC1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6890EE5-C0E8-4802-8E42-0DF3F48FD165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{81DC7A5F-55AF-40EA-8EC7-359879C15EC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{81DC7A5F-55AF-40EA-8EC7-359879C15EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel" sheetId="1" r:id="rId1"/>
@@ -192,13 +192,13 @@
     <t>Butter</t>
   </si>
   <si>
-    <t>Smart Phone</t>
-  </si>
-  <si>
     <t>Plastic Water Bottle</t>
   </si>
   <si>
     <t>Passenger Car, Hatchback</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654730BA-966A-4E9A-A34D-E58A6B0991B0}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -621,7 +621,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>1.21E-2</v>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB058400-035D-4E2C-9540-E881D5A059E1}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,7 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B8E9C1-7FDA-4BAA-BDCC-420B6A2BC665}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1088,7 +1090,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>16.7</v>
@@ -1096,7 +1098,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>8.2799999999999999E-2</v>
